--- a/Prosthesis/Project Outputs/Prosthesis.xlsx
+++ b/Prosthesis/Project Outputs/Prosthesis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\UA\Prosthesis-PCBA\Prosthesis\Project Outputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B3489E8-54C6-4A00-B8D7-8738A3330C27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5DFC51-35A7-460A-AC21-92EB07EFE058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17784" yWindow="4176" windowWidth="29316" windowHeight="18600" xr2:uid="{2E08ED76-8518-4B33-B430-DD9698D833F6}"/>
+    <workbookView xWindow="17784" yWindow="4176" windowWidth="29316" windowHeight="18600" xr2:uid="{BA8DCE13-9CD4-4D38-A581-867740C77F64}"/>
   </bookViews>
   <sheets>
     <sheet name="Prosthesis" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="184">
   <si>
     <t>Line #</t>
   </si>
@@ -59,6 +59,12 @@
     <t>Quantity</t>
   </si>
   <si>
+    <t>Part Number</t>
+  </si>
+  <si>
+    <t>PartNumber</t>
+  </si>
+  <si>
     <t>B2B-PH-K-S(LF)(SN)</t>
   </si>
   <si>
@@ -365,16 +371,13 @@
     <t>Q2</t>
   </si>
   <si>
-    <t>1.18k</t>
-  </si>
-  <si>
     <t>RESC2013X70X40ML20T20</t>
   </si>
   <si>
     <t>R1</t>
   </si>
   <si>
-    <t>1.5k</t>
+    <t>ERJ-6ENF1181V</t>
   </si>
   <si>
     <t>RESC2013X70X40NL20T20</t>
@@ -383,25 +386,25 @@
     <t>R2</t>
   </si>
   <si>
-    <t>47k</t>
+    <t>ERJ-6GEYJ152V</t>
   </si>
   <si>
     <t>R3</t>
   </si>
   <si>
+    <t>ERJ-6GEYJ473V</t>
+  </si>
+  <si>
     <t>R4</t>
   </si>
   <si>
-    <t>1.13k</t>
-  </si>
-  <si>
     <t>RESC2013X60X35NL10T20</t>
   </si>
   <si>
     <t>R5</t>
   </si>
   <si>
-    <t>10k</t>
+    <t>RC0805FR-071K13L</t>
   </si>
   <si>
     <t>Chip Resistor, 10 KOhm, +/- 1%, 0.125 W, -55 to 155 degC, 0805 (2012 Metric), RoHS, Tape and Reel</t>
@@ -410,16 +413,13 @@
     <t>R6</t>
   </si>
   <si>
-    <t>1M</t>
-  </si>
-  <si>
     <t>RESC1608X55X30NL15T15</t>
   </si>
   <si>
     <t>R7</t>
   </si>
   <si>
-    <t>180k</t>
+    <t>ERJ-3GEYJ105V</t>
   </si>
   <si>
     <t>RESC2013X50X40NL20T20</t>
@@ -428,7 +428,7 @@
     <t>R8</t>
   </si>
   <si>
-    <t>5.1k</t>
+    <t>RG2012N-184-W-T1</t>
   </si>
   <si>
     <t>RESC2013X60X40LL20T25</t>
@@ -437,7 +437,7 @@
     <t>R9</t>
   </si>
   <si>
-    <t>100</t>
+    <t>ERA-6YEB512V</t>
   </si>
   <si>
     <t>RESC2013X60X40ML20T25</t>
@@ -446,6 +446,9 @@
     <t>R10</t>
   </si>
   <si>
+    <t>ERA6AEB101V</t>
+  </si>
+  <si>
     <t>R11</t>
   </si>
   <si>
@@ -455,15 +458,15 @@
     <t>R13</t>
   </si>
   <si>
-    <t>5.6k</t>
-  </si>
-  <si>
     <t>RESC2013X70X40LL20T20</t>
   </si>
   <si>
     <t>R14</t>
   </si>
   <si>
+    <t>ERJ6ENF5601V</t>
+  </si>
+  <si>
     <t>R15</t>
   </si>
   <si>
@@ -485,12 +488,12 @@
     <t>R21</t>
   </si>
   <si>
-    <t>120</t>
-  </si>
-  <si>
     <t>R22</t>
   </si>
   <si>
+    <t>ERA6AEB121V</t>
+  </si>
+  <si>
     <t>R23</t>
   </si>
   <si>
@@ -506,18 +509,12 @@
     <t>RGB1</t>
   </si>
   <si>
-    <t>5003</t>
-  </si>
-  <si>
     <t>KSTN-5003</t>
   </si>
   <si>
     <t>Test Point, Orange, 1-Pin THD, RoHS</t>
   </si>
   <si>
-    <t>TP1</t>
-  </si>
-  <si>
     <t>TP2</t>
   </si>
   <si>
@@ -591,6 +588,9 @@
   </si>
   <si>
     <t>Y1</t>
+  </si>
+  <si>
+    <t>GND</t>
   </si>
 </sst>
 </file>
@@ -986,10 +986,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5204F18-78DE-4E80-9DD8-8C0493B8298E}">
-  <dimension ref="A1:F80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{346EC1BD-D4BF-4B7B-BB08-57164D580CFE}">
+  <dimension ref="A1:H80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -999,9 +1001,10 @@
     <col min="4" max="4" width="15.77734375" customWidth="1"/>
     <col min="5" max="5" width="15.5546875" customWidth="1"/>
     <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="8" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1020,971 +1023,1095 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F21" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F22" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F23" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F24" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F25" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F26" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F28" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F29" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F30" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F31" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F32" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F33" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F34" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F35" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F36" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F37" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F38" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="B39" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F39" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F40" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F41" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F42" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F43" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F44" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F45" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F46" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F47" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+      <c r="G48" s="1"/>
+      <c r="H48" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F49" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H49" s="1"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F50" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H50" s="1"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
       <c r="B51" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F51" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H51" s="1"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F52" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="H52" s="1"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F53" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H53" s="1"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="2" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F54" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" s="1"/>
+      <c r="H54" s="1"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>124</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>125</v>
@@ -1992,17 +2119,21 @@
       <c r="F55" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H55" s="1"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>127</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>128</v>
@@ -2010,17 +2141,21 @@
       <c r="F56" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H56" s="1"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
       <c r="B57" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>130</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>131</v>
@@ -2028,17 +2163,21 @@
       <c r="F57" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1"/>
       <c r="B58" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>133</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>134</v>
@@ -2046,71 +2185,87 @@
       <c r="F58" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1"/>
       <c r="B59" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>133</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E59" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F59" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1"/>
       <c r="B60" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>133</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F60" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1"/>
       <c r="B61" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>130</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F61" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H61" s="1"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1"/>
       <c r="B62" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>139</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>140</v>
@@ -2118,143 +2273,175 @@
       <c r="F62" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H62" s="1"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1"/>
       <c r="B63" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>139</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E63" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="F63" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="H63" s="1"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1"/>
       <c r="B64" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>139</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F64" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>139</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F65" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1"/>
       <c r="B66" s="2" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>139</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F66" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1"/>
       <c r="B67" s="2" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>139</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F67" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1"/>
       <c r="B68" s="2" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>139</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F68" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1"/>
       <c r="B69" s="2" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>139</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F69" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H69" s="1"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1"/>
       <c r="B70" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>133</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>149</v>
@@ -2262,47 +2449,57 @@
       <c r="F70" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1"/>
       <c r="B71" s="2" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>139</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F71" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H71" s="1"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
       <c r="B72" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F72" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" s="1"/>
+      <c r="H72" s="1"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1"/>
       <c r="B73" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>156</v>
@@ -2311,16 +2508,18 @@
         <v>157</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="F73" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1"/>
       <c r="B74" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>156</v>
@@ -2329,119 +2528,135 @@
         <v>157</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F74" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1"/>
       <c r="B75" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="D75" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="E75" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="F75" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" s="1"/>
+      <c r="H75" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1"/>
       <c r="B76" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="E76" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="F76" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1"/>
       <c r="B77" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="E77" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="F77" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1"/>
       <c r="B78" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C78" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="D78" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="E78" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="F78" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1"/>
       <c r="B79" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="E79" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>179</v>
-      </c>
       <c r="F79" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1"/>
       <c r="B80" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="D80" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="E80" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="F80" s="1">
         <v>1</v>
       </c>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
